--- a/docs/LectureSpring2019 copy.xlsx
+++ b/docs/LectureSpring2019 copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fatih/GitHub/dataism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A2BB3E-EDD5-3E4D-9046-86AFFED2634E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEDDFF1-E4E8-3F4B-9F5A-56F88F0FFF82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="31500" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="33220" windowHeight="20280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Lectures" localSheetId="0">Sheet1!$A$1:$F$50</definedName>
+    <definedName name="Lectures" localSheetId="0">Sheet1!$A$1:$F$17</definedName>
     <definedName name="Lectures" localSheetId="1">'Sheet1 (2)'!$A$1:$E$50</definedName>
     <definedName name="Lectures" localSheetId="2">'Sheet1 (3)'!$A$1:$F$50</definedName>
   </definedNames>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="162">
   <si>
     <t>Week</t>
   </si>
@@ -489,28 +489,76 @@
     <t>Flex</t>
   </si>
   <si>
-    <t>Missed Class due to snow</t>
-  </si>
-  <si>
-    <t>flex</t>
-  </si>
-  <si>
-    <t>[Power and Effect-size](https://crumplab.github.io/psyc3400/Presentations/6d_power.html#1)</t>
-  </si>
-  <si>
-    <t>M May 20</t>
-  </si>
-  <si>
-    <t>M May 20 10:30AM - 12:30 PM</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
     <t>Topic</t>
   </si>
   <si>
-    <t>DataCamp &amp; Readings</t>
+    <t>Datasets</t>
+  </si>
+  <si>
+    <t>Reading Basic</t>
+  </si>
+  <si>
+    <t>Reading Advanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataCamp Practice </t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction and Software </t>
+  </si>
+  <si>
+    <t>[Getting started with R (2) ](https://learningstatisticswithr.com/book/introR.html)</t>
+  </si>
+  <si>
+    <t>Data Types and Basic Variable Manipulation</t>
+  </si>
+  <si>
+    <t>Conditionals, Loops, and Apply</t>
+  </si>
+  <si>
+    <t>Data Import and Formatting</t>
+  </si>
+  <si>
+    <t>Data Manipulation</t>
+  </si>
+  <si>
+    <t>String Manipulation</t>
+  </si>
+  <si>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>Introduction to Statistics</t>
+  </si>
+  <si>
+    <t>Analysis of Variance</t>
+  </si>
+  <si>
+    <t>General and Generalized Linear Model</t>
+  </si>
+  <si>
+    <t>Generating Reports and Web Apps</t>
+  </si>
+  <si>
+    <t>Web Scraping and APIs</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Language Processing </t>
+  </si>
+  <si>
+    <t>Structural Equation Modeling</t>
+  </si>
+  <si>
+    <t>Exploratory Factor Analysis</t>
   </si>
 </sst>
 </file>
@@ -855,7 +903,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G50" sqref="A18:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -871,30 +919,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -904,15 +955,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -922,8 +973,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>116</v>
@@ -936,19 +990,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>117</v>
@@ -960,9 +1017,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>117</v>
@@ -974,17 +1034,23 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>118</v>
@@ -998,10 +1064,10 @@
     </row>
     <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>118</v>
@@ -1014,24 +1080,33 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="G11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>119</v>
@@ -1044,8 +1119,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>107</v>
@@ -1053,10 +1131,10 @@
     </row>
     <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>119</v>
@@ -1069,8 +1147,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>120</v>
@@ -1082,413 +1163,214 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>27</v>
-      </c>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" t="s">
-        <v>112</v>
-      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>14</v>
-      </c>
-      <c r="B46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>51</v>
-      </c>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
